--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H2">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.4608116718653333</v>
+        <v>0.4603453581288889</v>
       </c>
       <c r="R2">
-        <v>4.147305046787999</v>
+        <v>4.14310822316</v>
       </c>
       <c r="S2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="T2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.05064766666668</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H3">
         <v>207.151943</v>
       </c>
       <c r="I3">
-        <v>0.8914438519749055</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J3">
-        <v>0.8914438519749055</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>37.76301663489312</v>
+        <v>37.76301663489311</v>
       </c>
       <c r="R3">
         <v>339.867149714038</v>
       </c>
       <c r="S3">
-        <v>0.8914438519749055</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="T3">
-        <v>0.8914438519749055</v>
+        <v>0.8854716567263378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.007504</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H4">
-        <v>18.022512</v>
+        <v>23.09393</v>
       </c>
       <c r="I4">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J4">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.285435852554667</v>
+        <v>4.209936195264445</v>
       </c>
       <c r="R4">
-        <v>29.568922672992</v>
+        <v>37.88942575738</v>
       </c>
       <c r="S4">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="T4">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.558577</v>
+        <v>0.391393</v>
       </c>
       <c r="H5">
-        <v>4.675731</v>
+        <v>1.174179</v>
       </c>
       <c r="I5">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J5">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.8523680974273333</v>
+        <v>0.2140483959126667</v>
       </c>
       <c r="R5">
-        <v>7.671312876846</v>
+        <v>1.926435563214</v>
       </c>
       <c r="S5">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="T5">
-        <v>0.0201212288577881</v>
+        <v>0.005019031969317684</v>
       </c>
     </row>
   </sheetData>
